--- a/medicine/Enfance/Les_Scientifines/Les_Scientifines.xlsx
+++ b/medicine/Enfance/Les_Scientifines/Les_Scientifines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Scientifines est un organisme qui organise des activités scientifiques après les classes auprès des jeunes filles de 8 à 17 ans des quartiers défavorisés de Montréal, afin de les initier aux sciences et de les encourager à persévérer dans leurs études[1].
-Les Scientifines ont été lancées en 1987 par une équipe de quatre femmes de l’École de travail social de l’Université de Montréal : Claire Chamberland, Roseline Garon, Manon Théorêt et Diane Roy[2]. Valérie Bilodeau devient animatrice chez Les Scientifines en 2001 et directrice générale en 2009[3].
-Les écoles où l’organisme est actif depuis des années sont situées dans l’arrondissement du Sud-Ouest, qui prête des locaux gratuitement aux Scientifines. En 2021, l’équipe mène un projet pilote à Saint-Léonard[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Scientifines est un organisme qui organise des activités scientifiques après les classes auprès des jeunes filles de 8 à 17 ans des quartiers défavorisés de Montréal, afin de les initier aux sciences et de les encourager à persévérer dans leurs études.
+Les Scientifines ont été lancées en 1987 par une équipe de quatre femmes de l’École de travail social de l’Université de Montréal : Claire Chamberland, Roseline Garon, Manon Théorêt et Diane Roy. Valérie Bilodeau devient animatrice chez Les Scientifines en 2001 et directrice générale en 2009.
+Les écoles où l’organisme est actif depuis des années sont situées dans l’arrondissement du Sud-Ouest, qui prête des locaux gratuitement aux Scientifines. En 2021, l’équipe mène un projet pilote à Saint-Léonard. 
 L'organisme a mérité en 2001 le prix du CRSNG pour la promotion des sciences.
 </t>
         </is>
